--- a/trending-stock/doc/可转债.xlsx
+++ b/trending-stock/doc/可转债.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanse\Desktop\repo\python-for-backtest\trending-stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9AA4AA-14F1-426D-A95F-5621268E1CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD50FF9-75EF-4688-8B7B-6FEB2AB0ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="1763" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>证券代码</t>
   </si>
@@ -28,27 +28,71 @@
     <t>证券简称</t>
   </si>
   <si>
+    <t>收盘价
+[交易日期] 最新收盘日
+[复权方式] 不复权
+[单位] 元↓</t>
+  </si>
+  <si>
     <t>转股溢价率
+[日期] 2023-10-10
+[单位] %</t>
+  </si>
+  <si>
+    <t>波动率(年化)
+[起始交易日期] 截止日52周前
+[截止交易日期] 最新收盘日
+[周期] 周
+[收益率算法] 普通收益率
+[单位] %</t>
+  </si>
+  <si>
+    <t>转债隐含波动率
 [日期] 最新收盘日
+[无风险收益率] 一年定存利率（税前）
 [单位] %</t>
   </si>
   <si>
+    <t>127065.SZ</t>
+  </si>
+  <si>
+    <t>瑞鹄转债</t>
+  </si>
+  <si>
+    <t>123177.SZ</t>
+  </si>
+  <si>
+    <t>测绘转债</t>
+  </si>
+  <si>
     <t>128075.SZ</t>
   </si>
   <si>
     <t>远东转债</t>
   </si>
   <si>
-    <t>128118.SZ</t>
-  </si>
-  <si>
-    <t>瀛通转债</t>
-  </si>
-  <si>
-    <t>127079.SZ</t>
-  </si>
-  <si>
-    <t>华亚转债</t>
+    <t>113588.SH</t>
+  </si>
+  <si>
+    <t>润达转债</t>
+  </si>
+  <si>
+    <t>123054.SZ</t>
+  </si>
+  <si>
+    <t>思特转债</t>
+  </si>
+  <si>
+    <t>113519.SH</t>
+  </si>
+  <si>
+    <t>长久转债</t>
+  </si>
+  <si>
+    <t>111004.SH</t>
+  </si>
+  <si>
+    <t>明新转债</t>
   </si>
   <si>
     <t>123174.SZ</t>
@@ -57,46 +101,52 @@
     <t>精锻转债</t>
   </si>
   <si>
-    <t>123076.SZ</t>
-  </si>
-  <si>
-    <t>强力转债</t>
-  </si>
-  <si>
-    <t>123121.SZ</t>
-  </si>
-  <si>
-    <t>帝尔转债</t>
-  </si>
-  <si>
-    <t>123187.SZ</t>
-  </si>
-  <si>
-    <t>超达转债</t>
-  </si>
-  <si>
-    <t>113066.SH</t>
-  </si>
-  <si>
-    <t>平煤转债</t>
-  </si>
-  <si>
-    <t>113588.SH</t>
-  </si>
-  <si>
-    <t>润达转债</t>
-  </si>
-  <si>
-    <t>111016.SH</t>
-  </si>
-  <si>
-    <t>神通转债</t>
+    <t>111008.SH</t>
+  </si>
+  <si>
+    <t>沿浦转债</t>
+  </si>
+  <si>
+    <t>110060.SH</t>
+  </si>
+  <si>
+    <t>天路转债</t>
+  </si>
+  <si>
+    <t>123099.SZ</t>
+  </si>
+  <si>
+    <t>普利转债</t>
+  </si>
+  <si>
+    <t>128101.SZ</t>
+  </si>
+  <si>
+    <t>联创转债</t>
+  </si>
+  <si>
+    <t>113667.SH</t>
+  </si>
+  <si>
+    <t>春23转债</t>
   </si>
   <si>
     <t>118004.SH</t>
   </si>
   <si>
     <t>博瑞转债</t>
+  </si>
+  <si>
+    <t>123129.SZ</t>
+  </si>
+  <si>
+    <t>锦鸡转债</t>
+  </si>
+  <si>
+    <t>113593.SH</t>
+  </si>
+  <si>
+    <t>沪工转债</t>
   </si>
   <si>
     <t>数据来源：Wind</t>
@@ -107,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="###,###,###,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="###,###,###,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,20 +509,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.3828125"/>
-    <col min="2" max="2" width="28"/>
-    <col min="3" max="3" width="36"/>
+    <col min="1" max="1" width="15.3046875"/>
+    <col min="2" max="2" width="16.69140625"/>
+    <col min="3" max="3" width="24.69140625"/>
+    <col min="4" max="4" width="22.53515625"/>
+    <col min="5" max="5" width="30.69140625"/>
+    <col min="6" max="6" width="37.69140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="74.599999999999994" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,119 +535,339 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>-4.7723000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234.3175</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.3687</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35.659424690960797</v>
+      </c>
+      <c r="F2" s="2">
+        <v>52.548648751513497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>97.757099999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160.37479999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-1.3696999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42.438165439774401</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50.102901321494798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>39.219700000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142.41120000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25.497241420102799</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.7830847860469601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>14.030799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142.2133</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18.2315</v>
+      </c>
+      <c r="E5" s="2">
+        <v>22.1047181279407</v>
+      </c>
+      <c r="F5" s="2">
+        <v>36.702919924516102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>92.969899999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139.6934</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29.922000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18.9188947556991</v>
+      </c>
+      <c r="F6" s="2">
+        <v>46.470105414006603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>32.790999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139.3272</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.4588999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>19.9895602620016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>43.587800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138.8785</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.5267999999999997</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25.5358459492229</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26.196420077327701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>138.1644</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13.7217</v>
+      </c>
+      <c r="E9" s="2">
+        <v>22.5053411693907</v>
+      </c>
+      <c r="F9" s="2">
+        <v>37.982786076292101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>136.88210000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10.2334</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20.0584272635238</v>
+      </c>
+      <c r="F10" s="2">
+        <v>41.9493046942587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>132.30789999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14.9871</v>
+      </c>
+      <c r="E11" s="2">
+        <v>27.481412651667199</v>
+      </c>
+      <c r="F11" s="2">
+        <v>26.249244524648802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>130.13149999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17.863099999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>17.836273298758702</v>
+      </c>
+      <c r="F12" s="2">
+        <v>27.573529035176598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>125.6401</v>
+      </c>
+      <c r="D13" s="2">
+        <v>74.047300000000007</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25.3516009659206</v>
+      </c>
+      <c r="F13" s="2">
+        <v>56.138274395615099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>123.054</v>
+      </c>
+      <c r="D14" s="2">
+        <v>39.016100000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15.630957991495899</v>
+      </c>
+      <c r="F14" s="2">
+        <v>47.6017579255182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>119.3717</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33.554499999999997</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10.7043645588207</v>
+      </c>
+      <c r="F15" s="2">
+        <v>37.175243689195703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>119.15949999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13.4415</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10.2194076263595</v>
+      </c>
+      <c r="F16" s="2">
+        <v>35.4840893225863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2">
+        <v>114.0652</v>
+      </c>
+      <c r="D17" s="2">
+        <v>69.451099999999997</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9.0461826355367592</v>
+      </c>
+      <c r="F17" s="2">
+        <v>57.256991202361696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
